--- a/data/unchecked/manual_collect/china/zhejiang/zhejiangCaseStatistics_20200222.xlsx
+++ b/data/unchecked/manual_collect/china/zhejiang/zhejiangCaseStatistics_20200222.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicole/Desktop/ncp/zhejiang/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888E74D3-10EA-7948-9967-BD3346EB8413}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACAFF228-DF3B-EA4E-824F-0C90A705A943}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10884,8 +10884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D14"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17"/>
@@ -11257,7 +11257,7 @@
         <v>10</v>
       </c>
       <c r="O5" s="13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S5" s="13" t="s">
         <v>3293</v>
@@ -11313,7 +11313,7 @@
         <v>45</v>
       </c>
       <c r="O6" s="13">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="S6" s="13" t="s">
         <v>3293</v>
@@ -11369,7 +11369,7 @@
         <v>42</v>
       </c>
       <c r="O7" s="13">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S7" s="13" t="s">
         <v>3293</v>
